--- a/Docs/working/Test_Kit.xlsx
+++ b/Docs/working/Test_Kit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="25120" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="0" windowWidth="24540" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
   <si>
     <t>Test</t>
   </si>
@@ -60,19 +60,10 @@
     <t>SD Print</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>OD-MK1-1006</t>
+  </si>
+  <si>
+    <t>OD-MK1-1007</t>
   </si>
 </sst>
 </file>
@@ -129,8 +120,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -143,9 +142,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,19 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -503,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -519,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -527,7 +535,7 @@
         <v>3.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -535,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -543,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -551,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -559,203 +567,206 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>-0.31</v>
       </c>
-      <c r="F12" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" s="2">
-        <v>47</v>
-      </c>
-      <c r="J12" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="F13" s="2">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2">
-        <v>44</v>
-      </c>
-      <c r="I13" s="2">
-        <v>54</v>
-      </c>
-      <c r="J13" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="F14" s="2">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2">
-        <v>44</v>
-      </c>
-      <c r="I14" s="2">
-        <v>52</v>
-      </c>
-      <c r="J14" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="F15" s="2">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45</v>
-      </c>
-      <c r="I15" s="2">
-        <v>51</v>
-      </c>
-      <c r="J15" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45</v>
-      </c>
-      <c r="I16" s="2">
-        <v>52</v>
-      </c>
-      <c r="J16" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10">
-      <c r="F17" s="2">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2">
-        <v>47</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45</v>
-      </c>
-      <c r="I17" s="2">
-        <v>52</v>
-      </c>
-      <c r="J17" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10">
-      <c r="F18" s="2">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2">
-        <v>48</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45</v>
-      </c>
-      <c r="I18" s="2">
-        <v>51</v>
-      </c>
-      <c r="J18" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10">
-      <c r="F19" s="2">
-        <v>45</v>
-      </c>
-      <c r="G19" s="2">
-        <v>46</v>
-      </c>
-      <c r="H19" s="2">
-        <v>44</v>
-      </c>
-      <c r="I19" s="2">
-        <v>49</v>
-      </c>
-      <c r="J19" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10">
-      <c r="F20" s="2">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2">
-        <v>45</v>
-      </c>
-      <c r="I20" s="2">
-        <v>52</v>
-      </c>
-      <c r="J20" s="2">
-        <v>72</v>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.2209999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3.2420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/working/Test_Kit.xlsx
+++ b/Docs/working/Test_Kit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="24540" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="24540" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="16">
   <si>
     <t>Test</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>OD-MK1-1007</t>
+  </si>
+  <si>
+    <t>OD-MK1-1008</t>
   </si>
 </sst>
 </file>
@@ -120,8 +123,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -142,17 +147,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -769,6 +776,99 @@
         <v>-0.32</v>
       </c>
     </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.5209999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-0.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
